--- a/サンプルファイル/サンプル記録シート 団体3x2.xlsx
+++ b/サンプルファイル/サンプル記録シート 団体3x2.xlsx
@@ -1,14 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\Web\看的板\e-Kanteki-Board\サンプルファイル\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FDD511-25DD-44C4-B4F8-71597D4EA2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="8250" yWindow="1530" windowWidth="16545" windowHeight="17820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="ROUNDS" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="ORDER" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="RECEIVED_DATA" sheetId="3" r:id="rId6"/>
+    <sheet name="ROUNDS" sheetId="1" r:id="rId1"/>
+    <sheet name="ORDER" sheetId="2" r:id="rId2"/>
+    <sheet name="RECEIVED_DATA" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -18,9 +27,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>short_name</t>
-  </si>
-  <si>
     <t>method</t>
   </si>
   <si>
@@ -169,27 +175,47 @@
   </si>
   <si>
     <t>3rdPlaceMatch-score</t>
+  </si>
+  <si>
+    <t>column_name</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -198,73 +224,153 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="12">
     <dxf>
-      <font/>
       <fill>
-        <patternFill patternType="none"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF6F8F9"/>
+          <bgColor rgb="FFF6F8F9"/>
+        </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF356854"/>
           <bgColor rgb="FF356854"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <border>
+        <left style="thin">
+          <color rgb="FF356854"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF356854"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF356854"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF356854"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FFD4D4D4"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FFD4D4D4"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF6F8F9"/>
+          <bgColor rgb="FFF6F8F9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFFFFF"/>
           <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF356854"/>
+          <bgColor rgb="FF356854"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF356854"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF356854"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF356854"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF356854"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FFD4D4D4"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FFD4D4D4"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFF6F8F9"/>
           <bgColor rgb="FFF6F8F9"/>
         </patternFill>
       </fill>
-      <border/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF356854"/>
+          <bgColor rgb="FF356854"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border>
@@ -290,94 +396,90 @@
     </dxf>
   </dxfs>
   <tableStyles count="3">
-    <tableStyle count="4" pivot="0" name="ROUNDS-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
-      <tableStyleElement dxfId="4" size="0" type="wholeTable"/>
+    <tableStyle name="ROUNDS-style" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="wholeTable" size="0" dxfId="11"/>
+      <tableStyleElement type="headerRow" dxfId="10"/>
+      <tableStyleElement type="firstRowStripe" dxfId="9"/>
+      <tableStyleElement type="secondRowStripe" dxfId="8"/>
     </tableStyle>
-    <tableStyle count="4" pivot="0" name="ORDER-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
-      <tableStyleElement dxfId="4" size="0" type="wholeTable"/>
+    <tableStyle name="ORDER-style" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+      <tableStyleElement type="wholeTable" size="0" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="6"/>
+      <tableStyleElement type="firstRowStripe" dxfId="5"/>
+      <tableStyleElement type="secondRowStripe" dxfId="4"/>
     </tableStyle>
-    <tableStyle count="4" pivot="0" name="RECEIVED_DATA-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
-      <tableStyleElement dxfId="4" size="0" type="wholeTable"/>
+    <tableStyle name="RECEIVED_DATA-style" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
+      <tableStyleElement type="wholeTable" size="0" dxfId="3"/>
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:C7" displayName="表_1" name="表_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表_1" displayName="表_1" ref="A1:C7">
   <tableColumns count="3">
-    <tableColumn name="name" id="1"/>
-    <tableColumn name="short_name" id="2"/>
-    <tableColumn name="method" id="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="column_name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="method"/>
   </tableColumns>
-  <tableStyleInfo name="ROUNDS-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="ROUNDS-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L9" displayName="表_2" name="表_2" id="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表_2" displayName="表_2" ref="A1:L9">
   <tableColumns count="12">
-    <tableColumn name="1stRound-team" id="1"/>
-    <tableColumn name="1stRound-archer" id="2"/>
-    <tableColumn name="2ndRound-team" id="3"/>
-    <tableColumn name="2ndRound-archer" id="4"/>
-    <tableColumn name="3rdRound-team" id="5"/>
-    <tableColumn name="3rdRound-archer" id="6"/>
-    <tableColumn name="1stPlaceMatch-team" id="7"/>
-    <tableColumn name="1stPlaceMatch-archer" id="8"/>
-    <tableColumn name="2ndPlaceMatch-team" id="9"/>
-    <tableColumn name="2ndPlaceMatch-archer" id="10"/>
-    <tableColumn name="3rdPlaceMatch-team" id="11"/>
-    <tableColumn name="3rdPlaceMatch-archer" id="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="1stRound-team"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="1stRound-archer"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="2ndRound-team"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="2ndRound-archer"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="3rdRound-team"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="3rdRound-archer"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="1stPlaceMatch-team"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="1stPlaceMatch-archer"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="2ndPlaceMatch-team"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="2ndPlaceMatch-archer"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="3rdPlaceMatch-team"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="3rdPlaceMatch-archer"/>
   </tableColumns>
-  <tableStyleInfo name="ORDER-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="ORDER-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:M9" displayName="表_3" name="表_3" id="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="表_3" displayName="表_3" ref="A1:M9">
   <tableColumns count="13">
-    <tableColumn name="Team" id="1"/>
-    <tableColumn name="1stRound-archer" id="2"/>
-    <tableColumn name="1stRound-score" id="3"/>
-    <tableColumn name="2ndRound-archer" id="4"/>
-    <tableColumn name="2ndRound-score" id="5"/>
-    <tableColumn name="3rdRound-archer" id="6"/>
-    <tableColumn name="3rdRound-score" id="7"/>
-    <tableColumn name="1stPlaceMatch-archer" id="8"/>
-    <tableColumn name="1stPlaceMatch-score" id="9"/>
-    <tableColumn name="2ndPlaceMatch-archer" id="10"/>
-    <tableColumn name="2ndPlaceMatch-score" id="11"/>
-    <tableColumn name="3rdPlaceMatch-archer" id="12"/>
-    <tableColumn name="3rdPlaceMatch-score" id="13"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Team"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="1stRound-archer"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="1stRound-score"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="2ndRound-archer"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="2ndRound-score"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="3rdRound-archer"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="3rdRound-score"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="1stPlaceMatch-archer"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="1stPlaceMatch-score"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="2ndPlaceMatch-archer"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="2ndPlaceMatch-score"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="3rdPlaceMatch-archer"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="3rdPlaceMatch-score"/>
   </tableColumns>
-  <tableStyleInfo name="RECEIVED_DATA-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="RECEIVED_DATA-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -567,498 +669,506 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="14.25"/>
-    <col customWidth="1" min="4" max="4" width="6.5"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" customHeight="1">
+    <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" ht="22.5" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" ht="22.5" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" ht="22.5" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" ht="22.5" customHeight="1">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" ht="22.5" customHeight="1">
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" ht="22.5" customHeight="1">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.88"/>
-    <col customWidth="1" min="2" max="2" width="17.75"/>
-    <col customWidth="1" min="3" max="3" width="17.25"/>
-    <col customWidth="1" min="4" max="4" width="18.25"/>
-    <col customWidth="1" min="5" max="5" width="17.0"/>
-    <col customWidth="1" min="6" max="6" width="17.88"/>
-    <col customWidth="1" min="7" max="7" width="20.88"/>
-    <col customWidth="1" min="8" max="8" width="21.75"/>
-    <col customWidth="1" min="9" max="9" width="21.38"/>
-    <col customWidth="1" min="10" max="10" width="22.25"/>
-    <col customWidth="1" min="11" max="11" width="21.0"/>
-    <col customWidth="1" min="12" max="12" width="21.88"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" customWidth="1"/>
+    <col min="11" max="11" width="21" customWidth="1"/>
+    <col min="12" max="12" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" customHeight="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" ht="22.5" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="D3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="5" t="s">
+      <c r="F3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" ht="22.5" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="5" t="s">
+    </row>
+    <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="D4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" ht="22.5" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="5" t="s">
+    </row>
+    <row r="5" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="B5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="D5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" ht="22.5" customHeight="1">
-      <c r="A5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="I5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="B6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="D6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="5" t="s">
+      <c r="F6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" ht="22.5" customHeight="1">
-      <c r="A6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="5" t="s">
+    </row>
+    <row r="7" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="B7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="D7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="5" t="s">
+      <c r="F7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" ht="22.5" customHeight="1">
-      <c r="A7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="5" t="s">
+    </row>
+    <row r="8" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="B8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="D8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="5" t="s">
+      <c r="F8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" ht="22.5" customHeight="1">
-      <c r="A8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="5" t="s">
+    </row>
+    <row r="9" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="B9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="D9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="5" t="s">
+      <c r="F9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" ht="22.5" customHeight="1">
-      <c r="A9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>44</v>
-      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="17.75"/>
-    <col customWidth="1" min="3" max="3" width="17.13"/>
-    <col customWidth="1" min="4" max="4" width="18.25"/>
-    <col customWidth="1" min="5" max="5" width="17.63"/>
-    <col customWidth="1" min="6" max="6" width="17.88"/>
-    <col customWidth="1" min="7" max="7" width="17.25"/>
-    <col customWidth="1" min="8" max="8" width="21.75"/>
-    <col customWidth="1" min="9" max="9" width="21.25"/>
-    <col customWidth="1" min="10" max="10" width="22.25"/>
-    <col customWidth="1" min="11" max="11" width="21.63"/>
-    <col customWidth="1" min="12" max="12" width="21.88"/>
-    <col customWidth="1" min="13" max="13" width="21.38"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" customWidth="1"/>
+    <col min="12" max="12" width="21.85546875" customWidth="1"/>
+    <col min="13" max="13" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" customHeight="1">
+    <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" ht="22.5" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" ht="22.5" customHeight="1">
+    </row>
+    <row r="3" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" ht="22.5" customHeight="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" ht="22.5" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" ht="22.5" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" ht="22.5" customHeight="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" ht="22.5" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" ht="22.5" customHeight="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>